--- a/DOM_Banner/output/dept_banner/Maria Bishop_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Maria Bishop_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Section of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA; Department of Pathology, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206553907</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A Successful Program to Promote Equity in Cancer Care for American Indians</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Cancer Education</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-021-02129-5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35031975</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-021-02129-5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center; American College of Surgeons, Chicago, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225115560</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Honoring Two New Members of the American Association for Cancer Education Academy of Fellows</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Cancer Education</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-022-02167-7</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35486359</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-022-02167-7</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Department of Urology, University of Arizona, Tucson, AZ, USA.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Center for Cancer Research, Medical University of Vienna, Vienna, Austria.; University of Arizona Cancer Center, Tucson, AZ, USA.; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, USA.; University of Arizona Cancer Center, Tucson, AZ, USA.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.; Department of Medicine, College of Medicine, University of Arizona, Tucson, AZ, USA.; Center for Cancer Research, Medical University of Vienna, Vienna, Austria.; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ, USA.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284990073</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Genome-Wide Association Study of Metachronous Colorectal Adenoma Risk among Participants in the Selenium Trial</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Nutrition and Cancer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Routledge</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/01635581.2022.2096910</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35815403</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/01635581.2022.2096910</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
